--- a/键码.xlsx
+++ b/键码.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecbb390af5364d4d/文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\99647\Desktop\hemit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{D9614898-179F-4BF3-9C49-62E4E81EE7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6ACC2EF8-BF11-4D97-A54F-0509BF778C9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF3C4DF-AAD5-4D89-A059-C77C13054862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{C3023848-E671-4550-A1DC-8E6C538AEDB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="479">
   <si>
     <t>KC_ESC</t>
   </si>
@@ -1543,6 +1543,34 @@
   </si>
   <si>
     <t>{ 207.3638 , 56.4174 }</t>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1932,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B96EC5-A20E-4948-BE7D-EF79248D69DE}">
-  <dimension ref="A1:T187"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J198" sqref="I198:J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8403,9 +8431,6 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>0</v>
-      </c>
       <c r="B158">
         <v>1</v>
       </c>
@@ -8453,10 +8478,6 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <f>A158+1</f>
-        <v>1</v>
-      </c>
       <c r="B159">
         <v>1</v>
       </c>
@@ -8504,10 +8525,6 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <f t="shared" ref="A160:A164" si="42">A159+1</f>
-        <v>2</v>
-      </c>
       <c r="B160">
         <v>1</v>
       </c>
@@ -8554,11 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <f t="shared" si="42"/>
-        <v>3</v>
-      </c>
+    <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B161">
         <v>1</v>
       </c>
@@ -8605,11 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
+    <row r="162" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B162">
         <v>1</v>
       </c>
@@ -8656,11 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
+    <row r="163" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>1</v>
       </c>
@@ -8707,11 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
+    <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C164">
         <v>1</v>
       </c>
@@ -8752,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>425</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>377</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>397</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>416</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>436</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>452</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>471</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B174">
         <v>0</v>
       </c>
@@ -9084,47 +9085,47 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <f t="shared" ref="D174:D176" si="43">C174+1</f>
+        <f t="shared" ref="D174:D176" si="42">C174+1</f>
         <v>2</v>
       </c>
       <c r="E174">
-        <f t="shared" ref="E174:E179" si="44">D174+1</f>
+        <f t="shared" ref="E174:E179" si="43">D174+1</f>
         <v>3</v>
       </c>
       <c r="F174">
-        <f t="shared" ref="F174:F179" si="45">E174+1</f>
+        <f t="shared" ref="F174:F179" si="44">E174+1</f>
         <v>4</v>
       </c>
       <c r="G174">
-        <f t="shared" ref="G174:G179" si="46">F174+1</f>
+        <f t="shared" ref="G174:G179" si="45">F174+1</f>
         <v>5</v>
       </c>
       <c r="H174">
-        <f t="shared" ref="H174:H179" si="47">G174+1</f>
+        <f t="shared" ref="H174:H179" si="46">G174+1</f>
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I179" si="48">H174+1</f>
+        <f t="shared" ref="I174:I179" si="47">H174+1</f>
         <v>7</v>
       </c>
       <c r="J174">
-        <f t="shared" ref="J174:J179" si="49">I174+1</f>
+        <f t="shared" ref="J174:J179" si="48">I174+1</f>
         <v>8</v>
       </c>
       <c r="K174">
-        <f t="shared" ref="K174:K180" si="50">J174+1</f>
+        <f t="shared" ref="K174:K180" si="49">J174+1</f>
         <v>9</v>
       </c>
       <c r="L174">
-        <f t="shared" ref="L174:L180" si="51">K174+1</f>
+        <f t="shared" ref="L174:L180" si="50">K174+1</f>
         <v>10</v>
       </c>
       <c r="M174">
-        <f t="shared" ref="M174:M180" si="52">L174+1</f>
+        <f t="shared" ref="M174:M180" si="51">L174+1</f>
         <v>11</v>
       </c>
       <c r="N174">
-        <f t="shared" ref="N174:N180" si="53">M174+1</f>
+        <f t="shared" ref="N174:N180" si="52">M174+1</f>
         <v>12</v>
       </c>
       <c r="O174">
@@ -9134,7 +9135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B175">
         <f>N174+1</f>
         <v>13</v>
@@ -9144,59 +9145,59 @@
         <v>14</v>
       </c>
       <c r="D175">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="E175">
         <f t="shared" si="43"/>
-        <v>15</v>
-      </c>
-      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="F175">
         <f t="shared" si="44"/>
-        <v>16</v>
-      </c>
-      <c r="F175">
+        <v>17</v>
+      </c>
+      <c r="G175">
         <f t="shared" si="45"/>
-        <v>17</v>
-      </c>
-      <c r="G175">
+        <v>18</v>
+      </c>
+      <c r="H175">
         <f t="shared" si="46"/>
-        <v>18</v>
-      </c>
-      <c r="H175">
+        <v>19</v>
+      </c>
+      <c r="I175">
         <f t="shared" si="47"/>
-        <v>19</v>
-      </c>
-      <c r="I175">
+        <v>20</v>
+      </c>
+      <c r="J175">
         <f t="shared" si="48"/>
-        <v>20</v>
-      </c>
-      <c r="J175">
+        <v>21</v>
+      </c>
+      <c r="K175">
         <f t="shared" si="49"/>
-        <v>21</v>
-      </c>
-      <c r="K175">
+        <v>22</v>
+      </c>
+      <c r="L175">
         <f t="shared" si="50"/>
-        <v>22</v>
-      </c>
-      <c r="L175">
+        <v>23</v>
+      </c>
+      <c r="M175">
         <f t="shared" si="51"/>
-        <v>23</v>
-      </c>
-      <c r="M175">
+        <v>24</v>
+      </c>
+      <c r="N175">
         <f t="shared" si="52"/>
-        <v>24</v>
-      </c>
-      <c r="N175">
-        <f t="shared" si="53"/>
         <v>25</v>
       </c>
       <c r="O175">
-        <f t="shared" ref="O175:O180" si="54">N175+1</f>
+        <f t="shared" ref="O175:O180" si="53">N175+1</f>
         <v>26</v>
       </c>
       <c r="P175">
-        <f t="shared" ref="P175:P179" si="55">O175+1</f>
+        <f t="shared" ref="P175:P179" si="54">O175+1</f>
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B176">
         <v>28</v>
       </c>
@@ -9205,59 +9206,59 @@
         <v>29</v>
       </c>
       <c r="D176">
+        <f t="shared" si="42"/>
+        <v>30</v>
+      </c>
+      <c r="E176">
         <f t="shared" si="43"/>
-        <v>30</v>
-      </c>
-      <c r="E176">
+        <v>31</v>
+      </c>
+      <c r="F176">
         <f t="shared" si="44"/>
-        <v>31</v>
-      </c>
-      <c r="F176">
+        <v>32</v>
+      </c>
+      <c r="G176">
         <f t="shared" si="45"/>
-        <v>32</v>
-      </c>
-      <c r="G176">
+        <v>33</v>
+      </c>
+      <c r="H176">
         <f t="shared" si="46"/>
-        <v>33</v>
-      </c>
-      <c r="H176">
+        <v>34</v>
+      </c>
+      <c r="I176">
         <f t="shared" si="47"/>
-        <v>34</v>
-      </c>
-      <c r="I176">
+        <v>35</v>
+      </c>
+      <c r="J176">
         <f t="shared" si="48"/>
-        <v>35</v>
-      </c>
-      <c r="J176">
+        <v>36</v>
+      </c>
+      <c r="K176">
         <f t="shared" si="49"/>
-        <v>36</v>
-      </c>
-      <c r="K176">
+        <v>37</v>
+      </c>
+      <c r="L176">
         <f t="shared" si="50"/>
-        <v>37</v>
-      </c>
-      <c r="L176">
+        <v>38</v>
+      </c>
+      <c r="M176">
         <f t="shared" si="51"/>
-        <v>38</v>
-      </c>
-      <c r="M176">
+        <v>39</v>
+      </c>
+      <c r="N176">
         <f t="shared" si="52"/>
-        <v>39</v>
-      </c>
-      <c r="N176">
+        <v>40</v>
+      </c>
+      <c r="O176">
         <f t="shared" si="53"/>
-        <v>40</v>
-      </c>
-      <c r="O176">
+        <v>41</v>
+      </c>
+      <c r="P176">
         <f t="shared" si="54"/>
-        <v>41</v>
-      </c>
-      <c r="P176">
-        <f t="shared" si="55"/>
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177">
         <v>96</v>
       </c>
@@ -9269,55 +9270,55 @@
         <v>44</v>
       </c>
       <c r="E177">
+        <f t="shared" si="43"/>
+        <v>45</v>
+      </c>
+      <c r="F177">
         <f t="shared" si="44"/>
-        <v>45</v>
-      </c>
-      <c r="F177">
+        <v>46</v>
+      </c>
+      <c r="G177">
         <f t="shared" si="45"/>
-        <v>46</v>
-      </c>
-      <c r="G177">
+        <v>47</v>
+      </c>
+      <c r="H177">
         <f t="shared" si="46"/>
-        <v>47</v>
-      </c>
-      <c r="H177">
+        <v>48</v>
+      </c>
+      <c r="I177">
         <f t="shared" si="47"/>
-        <v>48</v>
-      </c>
-      <c r="I177">
+        <v>49</v>
+      </c>
+      <c r="J177">
         <f t="shared" si="48"/>
-        <v>49</v>
-      </c>
-      <c r="J177">
+        <v>50</v>
+      </c>
+      <c r="K177">
         <f t="shared" si="49"/>
-        <v>50</v>
-      </c>
-      <c r="K177">
+        <v>51</v>
+      </c>
+      <c r="L177">
         <f t="shared" si="50"/>
-        <v>51</v>
-      </c>
-      <c r="L177">
+        <v>52</v>
+      </c>
+      <c r="M177">
         <f t="shared" si="51"/>
-        <v>52</v>
-      </c>
-      <c r="M177">
+        <v>53</v>
+      </c>
+      <c r="N177">
         <f t="shared" si="52"/>
-        <v>53</v>
-      </c>
-      <c r="N177">
+        <v>54</v>
+      </c>
+      <c r="O177">
         <f t="shared" si="53"/>
-        <v>54</v>
-      </c>
-      <c r="O177">
+        <v>55</v>
+      </c>
+      <c r="P177">
         <f t="shared" si="54"/>
-        <v>55</v>
-      </c>
-      <c r="P177">
-        <f t="shared" si="55"/>
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B178">
         <v>57</v>
       </c>
@@ -9326,59 +9327,59 @@
         <v>58</v>
       </c>
       <c r="D178">
-        <f t="shared" ref="D178:D180" si="56">C178+1</f>
+        <f t="shared" ref="D178:D180" si="55">C178+1</f>
         <v>59</v>
       </c>
       <c r="E178">
+        <f t="shared" si="43"/>
+        <v>60</v>
+      </c>
+      <c r="F178">
         <f t="shared" si="44"/>
-        <v>60</v>
-      </c>
-      <c r="F178">
+        <v>61</v>
+      </c>
+      <c r="G178">
         <f t="shared" si="45"/>
-        <v>61</v>
-      </c>
-      <c r="G178">
+        <v>62</v>
+      </c>
+      <c r="H178">
         <f t="shared" si="46"/>
-        <v>62</v>
-      </c>
-      <c r="H178">
+        <v>63</v>
+      </c>
+      <c r="I178">
         <f t="shared" si="47"/>
-        <v>63</v>
-      </c>
-      <c r="I178">
+        <v>64</v>
+      </c>
+      <c r="J178">
         <f t="shared" si="48"/>
-        <v>64</v>
-      </c>
-      <c r="J178">
+        <v>65</v>
+      </c>
+      <c r="K178">
         <f t="shared" si="49"/>
-        <v>65</v>
-      </c>
-      <c r="K178">
+        <v>66</v>
+      </c>
+      <c r="L178">
         <f t="shared" si="50"/>
-        <v>66</v>
-      </c>
-      <c r="L178">
+        <v>67</v>
+      </c>
+      <c r="M178">
         <f t="shared" si="51"/>
-        <v>67</v>
-      </c>
-      <c r="M178">
+        <v>68</v>
+      </c>
+      <c r="N178">
         <f t="shared" si="52"/>
-        <v>68</v>
-      </c>
-      <c r="N178">
+        <v>69</v>
+      </c>
+      <c r="O178">
         <f t="shared" si="53"/>
-        <v>69</v>
-      </c>
-      <c r="O178">
+        <v>70</v>
+      </c>
+      <c r="P178">
         <f t="shared" si="54"/>
-        <v>70</v>
-      </c>
-      <c r="P178">
-        <f t="shared" si="55"/>
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>72</v>
       </c>
@@ -9387,59 +9388,59 @@
         <v>73</v>
       </c>
       <c r="D179">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>74</v>
       </c>
       <c r="E179">
+        <f t="shared" si="43"/>
+        <v>75</v>
+      </c>
+      <c r="F179">
         <f t="shared" si="44"/>
-        <v>75</v>
-      </c>
-      <c r="F179">
+        <v>76</v>
+      </c>
+      <c r="G179">
         <f t="shared" si="45"/>
-        <v>76</v>
-      </c>
-      <c r="G179">
+        <v>77</v>
+      </c>
+      <c r="H179">
         <f t="shared" si="46"/>
-        <v>77</v>
-      </c>
-      <c r="H179">
+        <v>78</v>
+      </c>
+      <c r="I179">
         <f t="shared" si="47"/>
-        <v>78</v>
-      </c>
-      <c r="I179">
+        <v>79</v>
+      </c>
+      <c r="J179">
         <f t="shared" si="48"/>
-        <v>79</v>
-      </c>
-      <c r="J179">
+        <v>80</v>
+      </c>
+      <c r="K179">
         <f t="shared" si="49"/>
-        <v>80</v>
-      </c>
-      <c r="K179">
+        <v>81</v>
+      </c>
+      <c r="L179">
         <f t="shared" si="50"/>
-        <v>81</v>
-      </c>
-      <c r="L179">
+        <v>82</v>
+      </c>
+      <c r="M179">
         <f t="shared" si="51"/>
-        <v>82</v>
-      </c>
-      <c r="M179">
+        <v>83</v>
+      </c>
+      <c r="N179">
         <f t="shared" si="52"/>
-        <v>83</v>
-      </c>
-      <c r="N179">
+        <v>84</v>
+      </c>
+      <c r="O179">
         <f t="shared" si="53"/>
-        <v>84</v>
-      </c>
-      <c r="O179">
+        <v>85</v>
+      </c>
+      <c r="P179">
         <f t="shared" si="54"/>
-        <v>85</v>
-      </c>
-      <c r="P179">
-        <f t="shared" si="55"/>
         <v>86</v>
       </c>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B180">
         <v>86</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>87</v>
       </c>
       <c r="D180">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>88</v>
       </c>
       <c r="E180">
@@ -9471,33 +9472,452 @@
         <v>90</v>
       </c>
       <c r="K180">
+        <f t="shared" si="49"/>
+        <v>91</v>
+      </c>
+      <c r="L180">
         <f t="shared" si="50"/>
-        <v>91</v>
-      </c>
-      <c r="L180">
+        <v>92</v>
+      </c>
+      <c r="M180">
         <f t="shared" si="51"/>
-        <v>92</v>
-      </c>
-      <c r="M180">
+        <v>93</v>
+      </c>
+      <c r="N180">
         <f t="shared" si="52"/>
-        <v>93</v>
-      </c>
-      <c r="N180">
+        <v>94</v>
+      </c>
+      <c r="O180">
         <f t="shared" si="53"/>
-        <v>94</v>
-      </c>
-      <c r="O180">
-        <f t="shared" si="54"/>
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <f>C182+1</f>
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ref="E182:Q182" si="56">D182+1</f>
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="56"/>
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="56"/>
+        <v>6</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="56"/>
+        <v>9</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="56"/>
+        <v>13</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="56"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>8213</v>
+      </c>
+      <c r="C183">
+        <v>6213</v>
+      </c>
+      <c r="D183">
+        <v>7213</v>
+      </c>
+      <c r="E183">
+        <v>9213</v>
+      </c>
+      <c r="F183">
+        <v>10213</v>
+      </c>
+      <c r="G183">
+        <v>11213</v>
+      </c>
+      <c r="H183">
+        <v>12213</v>
+      </c>
+      <c r="J183">
+        <v>6213</v>
+      </c>
+      <c r="K183">
+        <v>7213</v>
+      </c>
+      <c r="L183">
+        <v>8213</v>
+      </c>
+      <c r="M183">
+        <v>9213</v>
+      </c>
+      <c r="N183">
+        <v>10213</v>
+      </c>
+      <c r="O183">
+        <v>12213</v>
+      </c>
+      <c r="P183">
+        <v>11213</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f>A183+1</f>
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>4213</v>
+      </c>
+      <c r="C184">
+        <v>4546</v>
+      </c>
+      <c r="D184">
+        <v>8546</v>
+      </c>
+      <c r="E184">
+        <v>6546</v>
+      </c>
+      <c r="F184">
+        <v>7546</v>
+      </c>
+      <c r="G184">
+        <v>9546</v>
+      </c>
+      <c r="H184">
+        <v>10546</v>
+      </c>
+      <c r="I184">
+        <v>11546</v>
+      </c>
+      <c r="J184">
+        <v>12546</v>
+      </c>
+      <c r="L184">
+        <v>4213</v>
+      </c>
+      <c r="M184">
+        <v>4546</v>
+      </c>
+      <c r="N184">
+        <v>6546</v>
+      </c>
+      <c r="O184">
+        <v>7546</v>
+      </c>
+      <c r="P184">
+        <v>8546</v>
+      </c>
+      <c r="Q184">
+        <v>9546</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" ref="A185:A189" si="57">A184+1</f>
+        <v>2</v>
+      </c>
+      <c r="B185">
+        <v>5213</v>
+      </c>
+      <c r="C185">
+        <v>5546</v>
+      </c>
+      <c r="D185">
+        <v>3879</v>
+      </c>
+      <c r="E185">
+        <v>5879</v>
+      </c>
+      <c r="F185">
+        <v>4879</v>
+      </c>
+      <c r="G185">
+        <v>8879</v>
+      </c>
+      <c r="H185">
+        <v>6879</v>
+      </c>
+      <c r="I185">
+        <v>7879</v>
+      </c>
+      <c r="J185">
+        <v>9879</v>
+      </c>
+      <c r="L185">
+        <v>5213</v>
+      </c>
+      <c r="M185">
+        <v>5546</v>
+      </c>
+      <c r="N185">
+        <v>5879</v>
+      </c>
+      <c r="O185">
+        <v>4879</v>
+      </c>
+      <c r="P185">
+        <v>6879</v>
+      </c>
+      <c r="Q185">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" si="57"/>
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
+        <v>473</v>
+      </c>
+      <c r="C186">
+        <v>3546</v>
+      </c>
+      <c r="D186">
+        <v>1879</v>
+      </c>
+      <c r="E186">
+        <v>2111012</v>
+      </c>
+      <c r="F186">
+        <v>3111012</v>
+      </c>
+      <c r="G186">
+        <v>4111012</v>
+      </c>
+      <c r="H186">
+        <v>6111012</v>
+      </c>
+      <c r="I186">
+        <v>9111012</v>
+      </c>
+      <c r="J186">
+        <v>10879</v>
+      </c>
+      <c r="L186">
+        <v>2213</v>
+      </c>
+      <c r="M186">
+        <v>2546</v>
+      </c>
+      <c r="N186">
+        <v>2879</v>
+      </c>
+      <c r="O186">
+        <v>3879</v>
+      </c>
+      <c r="P186">
+        <v>4111012</v>
+      </c>
+      <c r="Q186">
+        <v>5111012</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>3213</v>
+      </c>
+      <c r="C187">
+        <v>1546</v>
+      </c>
+      <c r="D187">
+        <v>2879</v>
+      </c>
+      <c r="E187">
+        <v>1111012</v>
+      </c>
+      <c r="F187">
+        <v>5111012</v>
+      </c>
+      <c r="G187">
+        <v>8111012</v>
+      </c>
+      <c r="H187">
+        <v>7111012</v>
+      </c>
+      <c r="I187">
+        <v>10111012</v>
+      </c>
+      <c r="J187">
+        <v>11879</v>
+      </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
+      <c r="L187" s="5">
+        <v>3213</v>
+      </c>
+      <c r="M187" s="5">
+        <v>3546</v>
+      </c>
+      <c r="N187" s="5">
+        <v>1879</v>
+      </c>
+      <c r="O187" s="5">
+        <v>10111012</v>
+      </c>
+      <c r="P187" s="5">
+        <v>2111012</v>
+      </c>
+      <c r="Q187" s="5">
+        <v>6111012</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <v>1213</v>
+      </c>
+      <c r="C188">
+        <v>2213</v>
+      </c>
+      <c r="D188">
+        <v>2546</v>
+      </c>
+      <c r="E188" t="s">
+        <v>474</v>
+      </c>
+      <c r="F188">
+        <v>12879</v>
+      </c>
+      <c r="H188">
+        <v>1213</v>
+      </c>
+      <c r="I188">
+        <v>1546</v>
+      </c>
+      <c r="J188">
+        <v>1111012</v>
+      </c>
+      <c r="K188">
+        <v>3111012</v>
+      </c>
+      <c r="L188" s="5">
+        <v>12111012</v>
+      </c>
+      <c r="M188" s="5">
+        <v>9111012</v>
+      </c>
+      <c r="N188" s="5">
+        <v>11111012</v>
+      </c>
+      <c r="O188" s="5">
+        <v>8111012</v>
+      </c>
+      <c r="P188" s="5">
+        <v>7111012</v>
+      </c>
+      <c r="Q188" s="5">
+        <v>10879</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="E189" t="s">
+        <v>476</v>
+      </c>
+      <c r="F189" t="s">
+        <v>475</v>
+      </c>
+      <c r="G189" t="s">
+        <v>477</v>
+      </c>
+      <c r="H189" t="s">
+        <v>478</v>
+      </c>
+      <c r="I189">
+        <v>10546</v>
+      </c>
+      <c r="J189">
+        <v>12546</v>
+      </c>
+      <c r="K189">
+        <v>11546</v>
+      </c>
+      <c r="L189" s="5">
+        <v>12879</v>
+      </c>
+      <c r="M189" s="5">
+        <v>11879</v>
+      </c>
+      <c r="N189" s="5">
+        <v>8879</v>
+      </c>
+      <c r="O189" s="5">
+        <v>9879</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E192">
+        <v>11111012</v>
+      </c>
+      <c r="F192">
+        <v>12111012</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="T115:T116"/>
+    <mergeCell ref="T117:T118"/>
+    <mergeCell ref="T130:T131"/>
+    <mergeCell ref="T132:T133"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="T124:T125"/>
     <mergeCell ref="T61:T62"/>
     <mergeCell ref="T66:T67"/>
     <mergeCell ref="T68:T69"/>
@@ -9506,12 +9926,6 @@
     <mergeCell ref="T51:T52"/>
     <mergeCell ref="T53:T54"/>
     <mergeCell ref="T59:T60"/>
-    <mergeCell ref="T115:T116"/>
-    <mergeCell ref="T117:T118"/>
-    <mergeCell ref="T130:T131"/>
-    <mergeCell ref="T132:T133"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="T124:T125"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/键码.xlsx
+++ b/键码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="574">
   <si>
     <t>KC_ESC</t>
   </si>
@@ -1676,9 +1676,6 @@
   </si>
   <si>
     <t>0,E_2,D_2,F_2</t>
-  </si>
-  <si>
-    <t>W7</t>
   </si>
   <si>
     <t>0,H_12,G_12,I_12</t>
@@ -1746,9 +1743,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1768,15 +1765,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1796,26 +1816,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1835,9 +1839,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1853,32 +1872,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1889,23 +1893,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1920,13 +1917,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,61 +1947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,7 +1971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,7 +1983,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2034,7 +2037,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,31 +2067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,25 +2097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,6 +2108,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2129,10 +2153,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2153,41 +2194,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2202,162 +2208,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2702,10 +2699,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T215"/>
+  <dimension ref="A1:T226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H220" sqref="H220"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11005,7 +11002,7 @@
         <v>12111012</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:15">
       <c r="A208" s="5">
         <v>0</v>
       </c>
@@ -11050,9 +11047,6 @@
       </c>
       <c r="O208" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="P208" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11157,54 +11151,51 @@
         <v>521</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:15">
       <c r="A211" s="5">
         <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="K211" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M211" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O211" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="P211" s="5" t="s">
         <v>535</v>
       </c>
     </row>
@@ -11259,7 +11250,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:15">
       <c r="A213" s="5">
         <f t="shared" si="59"/>
         <v>5</v>
@@ -11306,16 +11297,15 @@
       <c r="O213" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="P213" s="5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16">
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="5">
         <f t="shared" si="59"/>
         <v>6</v>
       </c>
-      <c r="B214" s="5"/>
+      <c r="B214" s="5" t="s">
+        <v>565</v>
+      </c>
       <c r="C214" s="5" t="s">
         <v>566</v>
       </c>
@@ -11323,39 +11313,24 @@
         <v>567</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="K214" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="L214" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="M214" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="N214" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="O214" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="P214" s="5"/>
+      <c r="K214" s="5"/>
     </row>
     <row r="215" spans="1:16">
       <c r="A215" s="6"/>
@@ -11374,6 +11349,348 @@
       <c r="N215" s="6"/>
       <c r="O215" s="6"/>
       <c r="P215" s="6"/>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220" s="5">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <f>B220+1</f>
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <f t="shared" ref="D220:O220" si="60">C220+1</f>
+        <v>2</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="60"/>
+        <v>4</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="60"/>
+        <v>5</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="60"/>
+        <v>6</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="60"/>
+        <v>7</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="60"/>
+        <v>8</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="60"/>
+        <v>9</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="60"/>
+        <v>10</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="60"/>
+        <v>11</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="60"/>
+        <v>12</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="60"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16">
+      <c r="A221" s="5">
+        <f t="shared" ref="A221:A226" si="61">A220+1</f>
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>14</v>
+      </c>
+      <c r="C221">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>16</v>
+      </c>
+      <c r="E221">
+        <v>17</v>
+      </c>
+      <c r="F221">
+        <v>18</v>
+      </c>
+      <c r="G221">
+        <v>19</v>
+      </c>
+      <c r="H221">
+        <v>20</v>
+      </c>
+      <c r="I221">
+        <v>21</v>
+      </c>
+      <c r="J221">
+        <v>22</v>
+      </c>
+      <c r="K221">
+        <v>23</v>
+      </c>
+      <c r="L221">
+        <v>24</v>
+      </c>
+      <c r="M221">
+        <v>25</v>
+      </c>
+      <c r="N221">
+        <v>26</v>
+      </c>
+      <c r="O221">
+        <v>27</v>
+      </c>
+      <c r="P221">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16">
+      <c r="A222" s="5">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>29</v>
+      </c>
+      <c r="C222">
+        <v>30</v>
+      </c>
+      <c r="D222">
+        <v>31</v>
+      </c>
+      <c r="E222">
+        <v>32</v>
+      </c>
+      <c r="F222">
+        <v>33</v>
+      </c>
+      <c r="G222">
+        <v>34</v>
+      </c>
+      <c r="H222">
+        <v>35</v>
+      </c>
+      <c r="I222">
+        <v>36</v>
+      </c>
+      <c r="J222">
+        <v>37</v>
+      </c>
+      <c r="K222">
+        <v>38</v>
+      </c>
+      <c r="L222">
+        <v>39</v>
+      </c>
+      <c r="M222">
+        <v>40</v>
+      </c>
+      <c r="N222">
+        <v>41</v>
+      </c>
+      <c r="O222">
+        <v>42</v>
+      </c>
+      <c r="P222">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223" s="5">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>44</v>
+      </c>
+      <c r="C223">
+        <v>45</v>
+      </c>
+      <c r="D223">
+        <v>46</v>
+      </c>
+      <c r="E223">
+        <v>47</v>
+      </c>
+      <c r="F223">
+        <v>48</v>
+      </c>
+      <c r="G223">
+        <v>49</v>
+      </c>
+      <c r="H223">
+        <v>50</v>
+      </c>
+      <c r="I223">
+        <v>51</v>
+      </c>
+      <c r="J223">
+        <v>52</v>
+      </c>
+      <c r="K223">
+        <v>53</v>
+      </c>
+      <c r="L223">
+        <v>54</v>
+      </c>
+      <c r="M223">
+        <v>55</v>
+      </c>
+      <c r="N223">
+        <v>56</v>
+      </c>
+      <c r="O223">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16">
+      <c r="A224" s="5">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="B224">
+        <v>58</v>
+      </c>
+      <c r="C224">
+        <v>59</v>
+      </c>
+      <c r="D224">
+        <v>60</v>
+      </c>
+      <c r="E224">
+        <v>61</v>
+      </c>
+      <c r="F224">
+        <v>62</v>
+      </c>
+      <c r="G224">
+        <v>63</v>
+      </c>
+      <c r="H224">
+        <v>64</v>
+      </c>
+      <c r="I224">
+        <v>65</v>
+      </c>
+      <c r="J224">
+        <v>66</v>
+      </c>
+      <c r="K224">
+        <v>67</v>
+      </c>
+      <c r="L224">
+        <v>68</v>
+      </c>
+      <c r="M224">
+        <v>69</v>
+      </c>
+      <c r="N224">
+        <v>70</v>
+      </c>
+      <c r="O224">
+        <v>71</v>
+      </c>
+      <c r="P224">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="5">
+        <f t="shared" si="61"/>
+        <v>5</v>
+      </c>
+      <c r="B225">
+        <v>73</v>
+      </c>
+      <c r="C225">
+        <v>74</v>
+      </c>
+      <c r="D225">
+        <v>75</v>
+      </c>
+      <c r="E225">
+        <v>76</v>
+      </c>
+      <c r="F225">
+        <v>77</v>
+      </c>
+      <c r="G225">
+        <v>78</v>
+      </c>
+      <c r="H225">
+        <v>79</v>
+      </c>
+      <c r="I225">
+        <v>80</v>
+      </c>
+      <c r="J225">
+        <v>81</v>
+      </c>
+      <c r="K225">
+        <v>82</v>
+      </c>
+      <c r="L225">
+        <v>83</v>
+      </c>
+      <c r="M225">
+        <v>84</v>
+      </c>
+      <c r="N225">
+        <v>85</v>
+      </c>
+      <c r="O225">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="5">
+        <f t="shared" si="61"/>
+        <v>6</v>
+      </c>
+      <c r="B226">
+        <v>87</v>
+      </c>
+      <c r="C226">
+        <v>88</v>
+      </c>
+      <c r="D226">
+        <v>89</v>
+      </c>
+      <c r="E226">
+        <v>90</v>
+      </c>
+      <c r="F226">
+        <v>91</v>
+      </c>
+      <c r="G226">
+        <v>92</v>
+      </c>
+      <c r="H226">
+        <v>93</v>
+      </c>
+      <c r="I226">
+        <v>94</v>
+      </c>
+      <c r="J226">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/键码.xlsx
+++ b/键码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12270"/>
+    <workbookView windowWidth="28800" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="574">
   <si>
     <t>KC_ESC</t>
   </si>
@@ -1743,10 +1743,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1765,7 +1765,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1779,84 +1816,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1872,22 +1834,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1900,11 +1884,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1914,144 +1914,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2073,7 +1935,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2091,13 +2055,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2114,8 +2114,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2129,26 +2129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2180,16 +2171,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2213,148 +2213,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2362,22 +2362,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="justify" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2559,7 +2559,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2583,9 +2583,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2609,7 +2609,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2662,7 +2662,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2687,7 +2687,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -2699,20 +2699,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T226"/>
+  <dimension ref="A1:T256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="D249" sqref="D248:D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="15" width="19.75" customWidth="1"/>
-    <col min="16" max="16" width="20.25" customWidth="1"/>
-    <col min="17" max="20" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="true"/>
+    <col min="3" max="7" width="18.625" customWidth="true"/>
+    <col min="8" max="8" width="21.5" customWidth="true"/>
+    <col min="9" max="15" width="19.75" customWidth="true"/>
+    <col min="16" max="16" width="20.25" customWidth="true"/>
+    <col min="17" max="20" width="19.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
@@ -6009,7 +6009,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="5:15">
+    <row r="77" ht="15" customHeight="true" spans="5:15">
       <c r="E77" t="s">
         <v>90</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" ht="17.25" customHeight="1" spans="1:17">
+    <row r="107" ht="17.25" customHeight="true" spans="1:17">
       <c r="A107">
         <f t="shared" si="20"/>
         <v>3</v>
@@ -8919,7 +8919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" ht="17.25" customHeight="1" spans="1:16">
+    <row r="153" ht="17.25" customHeight="true" spans="1:16">
       <c r="A153">
         <f t="shared" si="40"/>
         <v>3</v>
@@ -9492,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1" spans="2:16">
+    <row r="166" ht="15" customHeight="true" spans="2:16">
       <c r="B166" t="s">
         <v>424</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" ht="17.25" customHeight="1" spans="2:16">
+    <row r="177" ht="17.25" customHeight="true" spans="2:16">
       <c r="B177">
         <v>96</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="true"/>
     <row r="182" spans="2:17">
       <c r="B182">
         <v>0</v>
@@ -10649,7 +10649,7 @@
         <v>12111012</v>
       </c>
     </row>
-    <row r="197" customFormat="1" spans="1:17">
+    <row r="197" customFormat="true" spans="1:17">
       <c r="A197">
         <v>0</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="198" customFormat="1" spans="1:17">
+    <row r="198" customFormat="true" spans="1:17">
       <c r="A198">
         <f t="shared" ref="A198:A203" si="58">A197+1</f>
         <v>1</v>
@@ -10750,7 +10750,7 @@
         <v>9546</v>
       </c>
     </row>
-    <row r="199" customFormat="1" spans="1:17">
+    <row r="199" customFormat="true" spans="1:17">
       <c r="A199">
         <f t="shared" si="58"/>
         <v>2</v>
@@ -10801,7 +10801,7 @@
         <v>7879</v>
       </c>
     </row>
-    <row r="200" customFormat="1" spans="1:17">
+    <row r="200" customFormat="true" spans="1:17">
       <c r="A200">
         <f t="shared" si="58"/>
         <v>3</v>
@@ -10852,7 +10852,7 @@
         <v>5111012</v>
       </c>
     </row>
-    <row r="201" customFormat="1" spans="1:17">
+    <row r="201" customFormat="true" spans="1:17">
       <c r="A201">
         <f t="shared" si="58"/>
         <v>4</v>
@@ -10904,7 +10904,7 @@
         <v>6111012</v>
       </c>
     </row>
-    <row r="202" customFormat="1" spans="1:17">
+    <row r="202" customFormat="true" spans="1:17">
       <c r="A202">
         <f t="shared" si="58"/>
         <v>5</v>
@@ -10955,7 +10955,7 @@
         <v>10879</v>
       </c>
     </row>
-    <row r="203" customFormat="1" spans="1:15">
+    <row r="203" customFormat="true" spans="1:15">
       <c r="A203">
         <f t="shared" si="58"/>
         <v>6</v>
@@ -10994,7 +10994,30 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="206" customFormat="1" spans="5:6">
+    <row r="204" spans="9:15">
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>5</v>
+      </c>
+      <c r="N204">
+        <v>6</v>
+      </c>
+      <c r="O204">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" customFormat="true" spans="5:6">
       <c r="E206">
         <v>11111012</v>
       </c>
@@ -11690,6 +11713,419 @@
       </c>
       <c r="J226">
         <v>95</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15">
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <f>B242+1</f>
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <f t="shared" ref="D242:O242" si="62">C242+1</f>
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="62"/>
+        <v>7</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="62"/>
+        <v>8</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="62"/>
+        <v>11</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="62"/>
+        <v>12</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="62"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
+      <c r="A248" s="5">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>368</v>
+      </c>
+      <c r="C248" t="s">
+        <v>369</v>
+      </c>
+      <c r="D248" t="s">
+        <v>370</v>
+      </c>
+      <c r="E248" t="s">
+        <v>371</v>
+      </c>
+      <c r="F248" t="s">
+        <v>372</v>
+      </c>
+      <c r="G248" t="s">
+        <v>373</v>
+      </c>
+      <c r="H248" t="s">
+        <v>374</v>
+      </c>
+      <c r="I248" t="s">
+        <v>375</v>
+      </c>
+      <c r="J248" t="s">
+        <v>376</v>
+      </c>
+      <c r="K248" t="s">
+        <v>377</v>
+      </c>
+      <c r="L248" t="s">
+        <v>378</v>
+      </c>
+      <c r="M248" t="s">
+        <v>379</v>
+      </c>
+      <c r="N248" t="s">
+        <v>380</v>
+      </c>
+      <c r="O248" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16">
+      <c r="A249" s="5">
+        <f t="shared" ref="A249:A254" si="63">A248+1</f>
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>386</v>
+      </c>
+      <c r="C249" t="s">
+        <v>387</v>
+      </c>
+      <c r="D249" t="s">
+        <v>388</v>
+      </c>
+      <c r="E249" t="s">
+        <v>389</v>
+      </c>
+      <c r="F249" t="s">
+        <v>390</v>
+      </c>
+      <c r="G249" t="s">
+        <v>391</v>
+      </c>
+      <c r="H249" t="s">
+        <v>392</v>
+      </c>
+      <c r="I249" t="s">
+        <v>393</v>
+      </c>
+      <c r="J249" t="s">
+        <v>394</v>
+      </c>
+      <c r="K249" t="s">
+        <v>395</v>
+      </c>
+      <c r="L249" t="s">
+        <v>396</v>
+      </c>
+      <c r="M249" t="s">
+        <v>397</v>
+      </c>
+      <c r="N249" t="s">
+        <v>398</v>
+      </c>
+      <c r="O249" t="s">
+        <v>399</v>
+      </c>
+      <c r="P249" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16">
+      <c r="A250" s="5">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
+        <v>405</v>
+      </c>
+      <c r="C250" t="s">
+        <v>406</v>
+      </c>
+      <c r="D250" t="s">
+        <v>407</v>
+      </c>
+      <c r="E250" t="s">
+        <v>408</v>
+      </c>
+      <c r="F250" t="s">
+        <v>409</v>
+      </c>
+      <c r="G250" t="s">
+        <v>410</v>
+      </c>
+      <c r="H250" t="s">
+        <v>411</v>
+      </c>
+      <c r="I250" t="s">
+        <v>412</v>
+      </c>
+      <c r="J250" t="s">
+        <v>413</v>
+      </c>
+      <c r="K250" t="s">
+        <v>414</v>
+      </c>
+      <c r="L250" t="s">
+        <v>415</v>
+      </c>
+      <c r="M250" t="s">
+        <v>416</v>
+      </c>
+      <c r="N250" t="s">
+        <v>417</v>
+      </c>
+      <c r="O250" t="s">
+        <v>418</v>
+      </c>
+      <c r="P250" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
+      <c r="A251" s="5">
+        <f t="shared" si="63"/>
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>425</v>
+      </c>
+      <c r="C251" t="s">
+        <v>426</v>
+      </c>
+      <c r="D251" t="s">
+        <v>427</v>
+      </c>
+      <c r="E251" t="s">
+        <v>428</v>
+      </c>
+      <c r="F251" t="s">
+        <v>429</v>
+      </c>
+      <c r="G251" t="s">
+        <v>430</v>
+      </c>
+      <c r="H251" t="s">
+        <v>431</v>
+      </c>
+      <c r="I251" t="s">
+        <v>432</v>
+      </c>
+      <c r="J251" t="s">
+        <v>433</v>
+      </c>
+      <c r="K251" t="s">
+        <v>434</v>
+      </c>
+      <c r="L251" t="s">
+        <v>435</v>
+      </c>
+      <c r="M251" t="s">
+        <v>436</v>
+      </c>
+      <c r="N251" t="s">
+        <v>437</v>
+      </c>
+      <c r="O251" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16">
+      <c r="A252" s="5">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>440</v>
+      </c>
+      <c r="C252" t="s">
+        <v>441</v>
+      </c>
+      <c r="D252" t="s">
+        <v>442</v>
+      </c>
+      <c r="E252" t="s">
+        <v>443</v>
+      </c>
+      <c r="F252" t="s">
+        <v>444</v>
+      </c>
+      <c r="G252" t="s">
+        <v>445</v>
+      </c>
+      <c r="H252" t="s">
+        <v>446</v>
+      </c>
+      <c r="I252" t="s">
+        <v>447</v>
+      </c>
+      <c r="J252" t="s">
+        <v>448</v>
+      </c>
+      <c r="K252" t="s">
+        <v>449</v>
+      </c>
+      <c r="L252" t="s">
+        <v>450</v>
+      </c>
+      <c r="M252" t="s">
+        <v>451</v>
+      </c>
+      <c r="N252" t="s">
+        <v>452</v>
+      </c>
+      <c r="O252" t="s">
+        <v>453</v>
+      </c>
+      <c r="P252" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="5">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>457</v>
+      </c>
+      <c r="C253" t="s">
+        <v>458</v>
+      </c>
+      <c r="D253" t="s">
+        <v>459</v>
+      </c>
+      <c r="E253" t="s">
+        <v>463</v>
+      </c>
+      <c r="F253" t="s">
+        <v>464</v>
+      </c>
+      <c r="G253" t="s">
+        <v>465</v>
+      </c>
+      <c r="H253" t="s">
+        <v>466</v>
+      </c>
+      <c r="I253" t="s">
+        <v>467</v>
+      </c>
+      <c r="J253" t="s">
+        <v>468</v>
+      </c>
+      <c r="K253" t="s">
+        <v>469</v>
+      </c>
+      <c r="L253" t="s">
+        <v>470</v>
+      </c>
+      <c r="M253" t="s">
+        <v>455</v>
+      </c>
+      <c r="N253" t="s">
+        <v>439</v>
+      </c>
+      <c r="O253" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" s="5">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>460</v>
+      </c>
+      <c r="C254" t="s">
+        <v>462</v>
+      </c>
+      <c r="D254" t="s">
+        <v>402</v>
+      </c>
+      <c r="E254" t="s">
+        <v>403</v>
+      </c>
+      <c r="F254" t="s">
+        <v>404</v>
+      </c>
+      <c r="G254" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H254" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="I254" t="s">
+        <v>420</v>
+      </c>
+      <c r="J254" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="7:8">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="2:8">
+      <c r="B256" t="s">
+        <v>424</v>
+      </c>
+      <c r="C256" t="s">
+        <v>401</v>
+      </c>
+      <c r="D256" t="s">
+        <v>382</v>
+      </c>
+      <c r="E256" t="s">
+        <v>383</v>
+      </c>
+      <c r="F256" t="s">
+        <v>384</v>
+      </c>
+      <c r="G256" t="s">
+        <v>385</v>
+      </c>
+      <c r="H256" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
